--- a/steel/data/mid-stream/螺纹钢/螺纹钢产量.xlsx
+++ b/steel/data/mid-stream/螺纹钢/螺纹钢产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Repository\Projects\ffa\steel\data\mid-stream\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\mid-stream\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8B035-BDCB-47B1-8618-414D9578E4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052A9B5-11B4-4C12-9252-333DE172DEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="277" windowWidth="38596" windowHeight="20146" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFA8175B-C558-484F-8E8A-01C8C613EE68}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7D94388C-4E52-4897-A601-6B0B4E3F3758}">
       <text>
         <r>
           <rPr>
@@ -49,9 +49,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvM+1uqZaQy5fWsnFn5LuXU8wJ48VaigH4pMxhl3I+UVtddn6UsNbNriJq2tF1otd2Quo8ZTJQifLb7TFDK/wb9m0N2ql9M8X77D45oUHbBxYKhTp/YZ5eg8xC46V0a/9fijMO1qKMzIiTYA4IDYJMyLZkGeuDDYZmt2KehVya8aRUcmVGg7KC1Ap3w1cZSWmPkkgtIbs780EE2lQxSgLT5DPoATQveVWCUigTaU5d9r917VQI1cJ1mdvLduPsDdb0wEUx6NSAfiw6VRYRoxEyHvD9qxAjdIEwgmbV0UjBWqMh0VUPfUsQKiHR8/W38QffkriZyPHDaWOP4SYj/x1mcdu2WTkTbw3y7+d3obAUIpXBvX/k3Micwr3bB7Nbv8n3+VWg3lWkTz+6bnFXJ+xX0iMJx90dO8jEVUrIS/Fdx9XM9O4iAgXOxM58xZWxuzeSbDVHNUUz1mwgS+KODVBsHCUiV6mlm91SOLMlUE1r/1yH697RZXi7RHearzcAa2GSlQcEynFU2dJlbBBW7/aNL/z9amLHBxcI9UPujLO4QY3Cfb4Mz0lFVjNis7TJX/4+RMvtd15bQpIjo+mCMa+7OIe0JJpRjB3TZtaD2iUgMxHRXr96H6NnxfQENkW/GaSpkd1QjElKOUl4Mh3a8Wg4pwdaV8jNI8JQ3vSLbUGYArx5FylWlxPumWldkfDM8V7eNlOkXES6zQvMvlF5KSeY7x3ZIDs8+og7TcQcnOrtjQQglEt4yQKTnXbO4aa3Dm2UMO8e5eSSeuxW0J6yzFlzUSF4GC4YqJ8qnnMz6D/3XB9xDp0EwUM315VQHHqc4zAGiwQiywRiwq4G7f8YfJRjZ0Fy8IanxmN5Ea9zJmy6d5/EOErR4yfKmekdy2fRDxDLH5t6195l/kypaVSgyMtd1PENpxIahZSX2/+ODh8dNHyTtFYqQgvmgPh2rAip94llG6LQMeA1Y+nb1hfVsePiVvHlj7mfM3Mz4E+zHldOst2w==</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTH9AyAvxvPtRPK/Y6fy4lz2KWBJYBci5O9pBsPURqiuNGQqyCnjH7Ung5z+ii9hq1rT4vBAzSgen+CCy1rso9qyU/kUkxgP2I7TJPKJc3EhlF7XmdlYP35A5gJCV2fr8qrcy7CkTgPG/VvhJioiSolN7TiUCKuFQ8Qy42CZl736H4MD9NJOTvtLP7OD4DDnztg6nQG+IRT3vc1XCoMdmCFo5mcYda9mfh2zr59msXjahKRvnoXUzFH9fOiToc9t1oRkkLFXDo56rxU/05E/nOguyWkk7HUVMOijhgJr/dueZpcPHS6QP+Cr+Ugsvtzs1jX2S5V+C2SyJETu5ba2RUwAHlpAQ56ZlrL1ONsyC8VOasoczKjsO8ZSm/h84r6VFyN4h0MJvJKOENrnW8TMAqegj+Ua71zT/jgcUiWrAvEUtuuu5BrVk/R+5pRll3U12/WRffPXBXTWa2bJ6fgsfXNdCqpNt6VAp4w8LjqOc8dKHx3DYn8rZftq+FohR+YM8g8MzKMR9XQGPia6FqQGWjeCVouf2mI+/opLJJ+X00amgXThZr9itdrA4YpS7rODF5aJ/MNS+GJxh56sQiyscV/xOS+Hji9YMoNQwhd9fwMDCXSC6jK3qQ2+VRzkD7Sway9uTam/kr1RwzNGfY/SvK6dIDwEnQ0fjT+RyyLewLGzLfDpuZTh+E1HZKPBVIhRzsWtwrrhhakZK2DocBd74wDT36lUilCNOhaEawPHg0iE8me7bgWQs9tziasPs/zQH10oTFpE7j0DW1IagjVScMbwjvIahEGDLYkyU0gmmF2xaQa0DMr1ko1Sd5gaekPoz4KZf2oYXMTQJAovidrwTRJtXOEMKFfjFFBPuZAApCS3KCsK/kckUgRy25SldNziSqqf8HbCheP5Udqn0haOazV/bmj/pf+M75gXAT5OuY5wV1lbu8s9Z0OFfRictVCY8WjeOLrJsJQu5uMvPTPgps7hD5QO/rocHld9gGMeYHDx4xk1Z6kZ6JfX9er55eGk8dWX8RkEZNiDoBrAiPfKrOYtgkQwOP7f6+xLbBwl5OUVlqw5ha4suXfMwleLFIMVj0cGkw8oPHhN+2HP9CXFxVJ0gA5e0Q4glR8tS6Vsn1tf/xjQ8F+bl9tangNKNDPMsYWF2ngs89a/cspZfdVG4FQCOdatToTRF4YVqU3R6ra2UtJY2AtSohHScVpyis9b7lo3F7pmzXbg6kaOUZ9qXgJu9DSAdwcNcfY0aQkXecQvfpeEljMMywn/g0U5y1YwvdSL6HJG1AMN0mIPVQo0873Twr8AgYhTbcK7wLn5LHZwVL4Le05ZQ4T</t>
         </r>
       </text>
     </comment>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>指标名称</t>
   </si>
@@ -109,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -123,6 +124,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,11 +133,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +255,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,28 +764,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -815,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -832,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -849,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -866,7 +870,7 @@
         <v>14.82431467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>40298</v>
       </c>
@@ -883,7 +887,7 @@
         <v>15.998117580000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>40329</v>
       </c>
@@ -900,7 +904,7 @@
         <v>16.894170450000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>40359</v>
       </c>
@@ -917,7 +921,7 @@
         <v>13.69273102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>40390</v>
       </c>
@@ -934,7 +938,7 @@
         <v>12.09851177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>40421</v>
       </c>
@@ -951,7 +955,7 @@
         <v>11.06826083</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>40451</v>
       </c>
@@ -968,7 +972,7 @@
         <v>10.43715055</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>40482</v>
       </c>
@@ -985,7 +989,7 @@
         <v>8.7005333700000005</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>40512</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>7.0415532000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>40543</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>7.7833414000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>40574</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>11.040897810000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>40602</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>14.183199999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>40633</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>13.799099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>40663</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>12.631500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>40694</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>12.9131</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>40724</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>15.1815</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>40755</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>16.718699999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>40786</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>17.6069</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>40816</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>18.717300000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>40847</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>19.047599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>40877</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>19.038599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>40908</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>18.007300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>40939</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>40968</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>12.891500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>40999</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>16.413</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>41029</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>15.1637</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>41060</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>14.3429</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>41090</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>13.945600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>41121</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>13.7437</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>41152</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>12.8962</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>41182</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>13.867000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>41213</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>14.8561</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>41243</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>15.530654999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>41274</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>41333</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>16.896106769999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>41364</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>12.06963236</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41394</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>12.830299249999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41425</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>13.18038634</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>41455</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>13.11549817</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>41486</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>13.300737829999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41517</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>13.928129370000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>41547</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>13.663710180000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>41578</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>13.318869530000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>41608</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>13.056521589999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>41639</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>13.802464540000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>41698</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>13.83075644</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>41729</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>9.5536193699999998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>41759</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>9.5997613400000006</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>41790</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>10.259932750000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>41820</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>10.762424409999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>41851</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>8.7776094400000009</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>41882</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>7.6913239500000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>41912</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>7.0604863</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>41943</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>6.5797384799999996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>41973</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>6.0966545999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>42004</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>4.7722927200000003</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>42063</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>-4.9741966499999997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42094</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>-3.3665035699999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>42124</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>-3.5897998000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>42155</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>-3.9814830799999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>42185</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>-3.8827965400000002</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>42216</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>-4.9728593099999996</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>42247</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>-4.7385967999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42277</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>-3.94796287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42308</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>-4.0363945599999997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>42338</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>42369</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>42429</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>42460</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42490</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42521</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42551</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>42582</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>42613</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>42643</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42674</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>42704</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42735</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>43159</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>43190</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>43220</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>43251</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>43281</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>43312</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>43343</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>43373</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>43404</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>43434</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>43465</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>43524</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>43555</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>43585</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>43616</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>43646</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>43677</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>43708</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>43738</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>43769</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>43799</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>43830</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>43890</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>43921</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>43951</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>43982</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>44012</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>44043</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>44074</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>44104</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>44135</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>44165</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>44196</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>44255</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>44286</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>44316</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>44347</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>44377</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>44408</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>44439</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>44469</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>44500</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>44530</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>44561</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>44620</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>44651</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>44681</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>44712</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>44742</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>44773</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>-14.7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>44804</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>44834</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>44865</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>44895</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>44926</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>44985</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>45016</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>45046</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>45077</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>45107</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>45138</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>45169</v>
       </c>
@@ -3372,7 +3376,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>45199</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>45230</v>
       </c>
@@ -3406,13 +3410,35 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B159" s="6">
+        <v>18010000</v>
+      </c>
+      <c r="C159" s="6">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="D159" s="6">
+        <v>20973.8</v>
+      </c>
+      <c r="E159" s="6">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/steel/data/mid-stream/螺纹钢/螺纹钢产量.xlsx
+++ b/steel/data/mid-stream/螺纹钢/螺纹钢产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\mid-stream\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\mid-stream\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052A9B5-11B4-4C12-9252-333DE172DEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A09CCF-4C73-4B0B-9F6F-3588003B94DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7D94388C-4E52-4897-A601-6B0B4E3F3758}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DB53ABFD-E16B-43A7-9E78-9FBF0DB5C31B}">
       <text>
         <r>
           <rPr>
@@ -49,10 +49,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTH9AyAvxvPtRPK/Y6fy4lz2KWBJYBci5O9pBsPURqiuNGQqyCnjH7Ung5z+ii9hq1rT4vBAzSgen+CCy1rso9qyU/kUkxgP2I7TJPKJc3EhlF7XmdlYP35A5gJCV2fr8qrcy7CkTgPG/VvhJioiSolN7TiUCKuFQ8Qy42CZl736H4MD9NJOTvtLP7OD4DDnztg6nQG+IRT3vc1XCoMdmCFo5mcYda9mfh2zr59msXjahKRvnoXUzFH9fOiToc9t1oRkkLFXDo56rxU/05E/nOguyWkk7HUVMOijhgJr/dueZpcPHS6QP+Cr+Ugsvtzs1jX2S5V+C2SyJETu5ba2RUwAHlpAQ56ZlrL1ONsyC8VOasoczKjsO8ZSm/h84r6VFyN4h0MJvJKOENrnW8TMAqegj+Ua71zT/jgcUiWrAvEUtuuu5BrVk/R+5pRll3U12/WRffPXBXTWa2bJ6fgsfXNdCqpNt6VAp4w8LjqOc8dKHx3DYn8rZftq+FohR+YM8g8MzKMR9XQGPia6FqQGWjeCVouf2mI+/opLJJ+X00amgXThZr9itdrA4YpS7rODF5aJ/MNS+GJxh56sQiyscV/xOS+Hji9YMoNQwhd9fwMDCXSC6jK3qQ2+VRzkD7Sway9uTam/kr1RwzNGfY/SvK6dIDwEnQ0fjT+RyyLewLGzLfDpuZTh+E1HZKPBVIhRzsWtwrrhhakZK2DocBd74wDT36lUilCNOhaEawPHg0iE8me7bgWQs9tziasPs/zQH10oTFpE7j0DW1IagjVScMbwjvIahEGDLYkyU0gmmF2xaQa0DMr1ko1Sd5gaekPoz4KZf2oYXMTQJAovidrwTRJtXOEMKFfjFFBPuZAApCS3KCsK/kckUgRy25SldNziSqqf8HbCheP5Udqn0haOazV/bmj/pf+M75gXAT5OuY5wV1lbu8s9Z0OFfRictVCY8WjeOLrJsJQu5uMvPTPgps7hD5QO/rocHld9gGMeYHDx4xk1Z6kZ6JfX9er55eGk8dWX8RkEZNiDoBrAiPfKrOYtgkQwOP7f6+xLbBwl5OUVlqw5ha4suXfMwleLFIMVj0cGkw8oPHhN+2HP9CXFxVJ0gA5e0Q4glR8tS6Vsn1tf/xjQ8F+bl9tangNKNDPMsYWF2ngs89a/cspZfdVG4FQCOdatToTRF4YVqU3R6ra2UtJY2AtSohHScVpyis9b7lo3F7pmzXbg6kaOUZ9qXgJu9DSAdwcNcfY0aQkXecQvfpeEljMMywn/g0U5y1YwvdSL6HJG1AMN0mIPVQo0873Twr8AgYhTbcK7wLn5LHZwVL4Le05ZQ4T</t>
+          <t>yVjpCgZpNvM+1uqZaQy5fWsnFn5LuXU8wJ48VaigH4pMxhl3I+UVtddn6UsNbNriJq2tF1otd2Quo8ZTJQifLb7TFDK/wb9m0N2ql9M8X77D45oUHbBxYKhTp/YZ5eg8xC46V0a/9fijMO1qKMzIiTYA4IDYJMyLZkGeuDDYZmt2KehVya8aRUcmVGg7KC1Ap3w1cZSWmPkkgtIbs780EE2lQxSgLT5DPoATQveVWCUigTaU5d9r917VQI1cJ1mdvLduPsDdb0wEUx6NSAfiw6VRYRoxEyHvD9qxAjdIEwgmbV0UjBWqMh0VUPfUsQKiHR8/W38QffkriZyPHDaWOP4SYj/x1mcdu2WTkTbw3y7+d3obAUIpXBvX/k3Micwr3bB7Nbv8n3+VWg3lWkTz+6bnFXJ+xX0iMJx90dO8jEVUrIS/Fdx9XM9O4iAgXOxM58xZWxuzeSbDVHNUUz1mwgS+KODVBsHCUiV6mlm91SOLMlUE1r/1yH697RZXi7RHearzcAa2GSlQcEynFU2dJlbBBW7/aNL/z9amLHBxcI9UPujLO4QY3Cfb4Mz0lFVjNis7TJX/4+RMvtd15bQpIjo+mCMa+7OIe0JJpRjB3TZtaD2iUgMxHRXr96H6NnxfQENkW/GaSpkd1QjElKOUl4Mh3a8Wg4pwdaV8jNI8JQ3vSLbUGYArx5FylWlxPumWldkfDM8V7eNlOkXES6zQvMvlF5KSeY7x3ZIDs8+og7TcQcnOrtjQQglEt4yQKTnXbO4aa3Dm2UMO8e5eSSeuxW0J6yzFlzUSF4GC4YqJ8qnnMz6D/3XB9xDp0EwUM315VQHHqc4zAGiwQiywRiwq4G7f8YfJRjZ0Fy8IanxmN5Ea9zJmy6d5/LZWfx8PvwEeBrGAPCMxZNX/n/wIJMKCyUp1hEKyx3oLpn019N8HfxG3W6VhXXZBskwPvW6UOt4OJITjAmNW7LAPCpEEvaY1yEtDdt4+1sNQPcIhR+MG5Xx3fNGrUS1oBg==</t>
         </r>
       </text>
     </comment>
@@ -129,14 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -176,6 +167,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -246,22 +244,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,28 +762,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -853,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -870,7 +868,7 @@
         <v>14.82431467</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>40298</v>
       </c>
@@ -887,7 +885,7 @@
         <v>15.998117580000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>40329</v>
       </c>
@@ -904,7 +902,7 @@
         <v>16.894170450000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>40359</v>
       </c>
@@ -921,7 +919,7 @@
         <v>13.69273102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>40390</v>
       </c>
@@ -938,7 +936,7 @@
         <v>12.09851177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>40421</v>
       </c>
@@ -955,7 +953,7 @@
         <v>11.06826083</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>40451</v>
       </c>
@@ -972,7 +970,7 @@
         <v>10.43715055</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>40482</v>
       </c>
@@ -989,7 +987,7 @@
         <v>8.7005333700000005</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>40512</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>7.0415532000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>40543</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>7.7833414000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>40574</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>11.040897810000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>40602</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>14.183199999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>40633</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>13.799099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>40663</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>12.631500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40694</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>12.9131</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>40724</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>15.1815</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>40755</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>16.718699999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>40786</v>
       </c>
@@ -1159,7 +1157,7 @@
         <v>17.6069</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>40816</v>
       </c>
@@ -1176,7 +1174,7 @@
         <v>18.717300000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>40847</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>19.047599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>40877</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>19.038599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>40908</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>18.007300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>40939</v>
       </c>
@@ -1244,7 +1242,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>40968</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>12.891500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>40999</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>16.413</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>41029</v>
       </c>
@@ -1295,7 +1293,7 @@
         <v>15.1637</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>41060</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>14.3429</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>41090</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>13.945600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41121</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>13.7437</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>41152</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>12.8962</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>41182</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>13.867000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>41213</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>14.8561</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>41243</v>
       </c>
@@ -1414,7 +1412,7 @@
         <v>15.530654999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>41274</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41333</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>16.896106769999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41364</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>12.06963236</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41394</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>12.830299249999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41425</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>13.18038634</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41455</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>13.11549817</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41486</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>13.300737829999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41517</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>13.928129370000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41547</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>13.663710180000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>41578</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>13.318869530000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>41608</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>13.056521589999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41639</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>13.802464540000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>41698</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>13.83075644</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41729</v>
       </c>
@@ -1644,7 +1642,7 @@
         <v>9.5536193699999998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>41759</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>9.5997613400000006</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>41790</v>
       </c>
@@ -1678,7 +1676,7 @@
         <v>10.259932750000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>41820</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>10.762424409999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>41851</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>8.7776094400000009</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>41882</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>7.6913239500000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>41912</v>
       </c>
@@ -1746,7 +1744,7 @@
         <v>7.0604863</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>41943</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>6.5797384799999996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>41973</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>6.0966545999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>42004</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>4.7722927200000003</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>42063</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>-4.9741966499999997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>42094</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>-3.3665035699999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42124</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>-3.5897998000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42155</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>-3.9814830799999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42185</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>-3.8827965400000002</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42216</v>
       </c>
@@ -1895,7 +1893,7 @@
         <v>-4.9728593099999996</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42247</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>-4.7385967999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>42277</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>-3.94796287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>42308</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>-4.0363945599999997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>42338</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42369</v>
       </c>
@@ -1980,7 +1978,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42429</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42460</v>
       </c>
@@ -2010,7 +2008,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>42490</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>42521</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>42551</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>42582</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>42613</v>
       </c>
@@ -2095,7 +2093,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>42643</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>42674</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>42704</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>42735</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -2193,7 +2191,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>43159</v>
       </c>
@@ -2359,7 +2357,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43190</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43220</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43251</v>
       </c>
@@ -2410,7 +2408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43281</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43312</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>43343</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>43373</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>43404</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43434</v>
       </c>
@@ -2512,7 +2510,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>43465</v>
       </c>
@@ -2529,7 +2527,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43524</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>43555</v>
       </c>
@@ -2559,7 +2557,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>43585</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>43616</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>43646</v>
       </c>
@@ -2610,7 +2608,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>43677</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>43708</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>43738</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>43769</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>43799</v>
       </c>
@@ -2695,7 +2693,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>43830</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>43890</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>43921</v>
       </c>
@@ -2742,7 +2740,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>43951</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>43982</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>44012</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>44043</v>
       </c>
@@ -2810,7 +2808,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>44074</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>44104</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>44135</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>44165</v>
       </c>
@@ -2878,7 +2876,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>44196</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>44255</v>
       </c>
@@ -2908,7 +2906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>44286</v>
       </c>
@@ -2925,7 +2923,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>44316</v>
       </c>
@@ -2942,7 +2940,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>44347</v>
       </c>
@@ -2959,7 +2957,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>44377</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>44408</v>
       </c>
@@ -2993,7 +2991,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>44439</v>
       </c>
@@ -3010,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>44469</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>44500</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>44530</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>44561</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>44620</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>44651</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>44681</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>44712</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>44742</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>44773</v>
       </c>
@@ -3176,7 +3174,7 @@
         <v>-14.7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>44804</v>
       </c>
@@ -3193,7 +3191,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>44834</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>44865</v>
       </c>
@@ -3227,7 +3225,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>44895</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>44926</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>44985</v>
       </c>
@@ -3274,7 +3272,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>45016</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>45046</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>45077</v>
       </c>
@@ -3325,7 +3323,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>45107</v>
       </c>
@@ -3342,7 +3340,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>45138</v>
       </c>
@@ -3359,7 +3357,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>45169</v>
       </c>
@@ -3376,7 +3374,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>45199</v>
       </c>
@@ -3393,7 +3391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>45230</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>45260</v>
       </c>
@@ -3427,23 +3425,40 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B160" s="6">
+        <v>17644000</v>
+      </c>
+      <c r="C160" s="6">
+        <v>-7.2</v>
+      </c>
+      <c r="D160" s="6">
+        <v>22638.1</v>
+      </c>
+      <c r="E160" s="6">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
